--- a/biology/Botanique/Begonia_adliniana/Begonia_adliniana.xlsx
+++ b/biology/Botanique/Begonia_adliniana/Begonia_adliniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia adliniana est une espèce de plantes de la famille des Begoniaceae. Ce bégonia à port de bambou est endémique du Sabah, en Malaisie, sur l'île de Bornéo.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bégonia ressemble beaucoup à Begonia kipandiensis S.Julia.
-C'est une plante à tige bambusiforme, qui peut mesurer jusqu'à 40 cm de haut. Les feuilles charnue, d'un vert foncé, ont le bord dentelé et mesurent 12-14,5 cm par 7 cm environ. Les bractées de 10 × 5 mm, d'un vert très clair, sont densément frangées à la marge avec des poils glandulaires. L'inflorescence ramifiée porte de nombreuses fleurs mâles constituées de 4 tépales blancs, ceux de l'intérieur étant beaucoup plus petits (4-5x1 mm) que ceux de l'extérieur (6-7x4-5 mm), tandis que la fleur femelle est solitaire, avec également 4 tépales blancs, de 6-8 mm. Les capsules portent 3 ailes inégales, dont l'une est deux fois plus large (3 mm) que les deux autres, l'ensemble mesurant 0,8-1 cm de long pour une largeur de  1-1,5 cm et pointant vers le haut, au bout d'une tige de 5-7 mm de long[1].   
+C'est une plante à tige bambusiforme, qui peut mesurer jusqu'à 40 cm de haut. Les feuilles charnue, d'un vert foncé, ont le bord dentelé et mesurent 12-14,5 cm par 7 cm environ. Les bractées de 10 × 5 mm, d'un vert très clair, sont densément frangées à la marge avec des poils glandulaires. L'inflorescence ramifiée porte de nombreuses fleurs mâles constituées de 4 tépales blancs, ceux de l'intérieur étant beaucoup plus petits (4-5x1 mm) que ceux de l'extérieur (6-7x4-5 mm), tandis que la fleur femelle est solitaire, avec également 4 tépales blancs, de 6-8 mm. Les capsules portent 3 ailes inégales, dont l'une est deux fois plus large (3 mm) que les deux autres, l'ensemble mesurant 0,8-1 cm de long pour une largeur de  1-1,5 cm et pointant vers le haut, au bout d'une tige de 5-7 mm de long.   
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est connue uniquement sur l'île de Bornéo, dans le parc national du Kinabalu, situé dans l'état de Sabah, en Malaisie orientale[2],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est connue uniquement sur l'île de Bornéo, dans le parc national du Kinabalu, situé dans l'état de Sabah, en Malaisie orientale,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante pousse à 1500 m d'altitude, sur des berges pentues situées à l'ombre de la forêt primaire, avec une préférence marquée pour les sole constitués de roche ultramafique[1], c'est-à-dire une roche magmatique ultrabasique contenant beaucoup de métaux.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante pousse à 1500 m d'altitude, sur des berges pentues situées à l'ombre de la forêt primaire, avec une préférence marquée pour les sole constitués de roche ultramafique, c'est-à-dire une roche magmatique ultrabasique contenant beaucoup de métaux.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia adliniana est une plante dicotylédone qui fait partie de la section Petermannia du genre Begonia, famille des Begoniaceae.
-L'espèce a été décrite en 2015 par le botaniste Rimi Repin et l'épithète spécifique, adliniana est un hommage à Dato' Seri Tengku Dr Zainal Adlin Bin Tengku Mahamood, président du conseil d'administration de Sabah Parks (en)[1],[3].
+L'espèce a été décrite en 2015 par le botaniste Rimi Repin et l'épithète spécifique, adliniana est un hommage à Dato' Seri Tengku Dr Zainal Adlin Bin Tengku Mahamood, président du conseil d'administration de Sabah Parks (en),.
 Publication originale : Rimi Repin ;  Karim, R. M. ;  Handry Mujih, Three new Begonia (Begoniaceae) species from ultramafic outcrops in Kinabalu Park, Sabah, Malaysia., in  Sandakania 2015 No.20 pp.155-164 ref.7.
 </t>
         </is>
